--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV033-001 until DPLKINV033-003 - Setup Broker Investasi - Approve Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV033-001 until DPLKINV033-003 - Setup Broker Investasi - Approve Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14C7672-83B5-42A0-B66C-196A7C6054B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9041E466-3E6F-4AED-A520-DB7C270E92A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKINV033-001" sheetId="2" r:id="rId1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +762,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33A5C4E-C133-4420-99C0-9BEC4096C83D}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
